--- a/NoSubs/metrics/AllMetricsPossession.xlsx
+++ b/NoSubs/metrics/AllMetricsPossession.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>goal_scored</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>I_normalized_minutes</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>I_normalized_percentage</t>
         </is>
@@ -515,9 +520,12 @@
         <v>62.24643488467147</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>12.07458631645321</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>6.31361459862143</v>
       </c>
     </row>
@@ -551,9 +559,12 @@
         <v>47.560447488637</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>13.77735955094256</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>10.23960088088643</v>
       </c>
     </row>
@@ -587,9 +598,12 @@
         <v>50.94913945744796</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>11.88005065196572</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>7.065870078152492</v>
       </c>
     </row>
@@ -623,9 +637,12 @@
         <v>51.01248388042202</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>12.24853400707505</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6.508210828906875</v>
       </c>
     </row>
@@ -659,9 +676,12 @@
         <v>46.41907912550761</v>
       </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>15.3890959076534</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>8.121660470270635</v>
       </c>
     </row>
@@ -695,9 +715,12 @@
         <v>41.77017086437129</v>
       </c>
       <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>14.90798214339663</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>8.953757963173926</v>
       </c>
     </row>
@@ -731,9 +754,12 @@
         <v>61.84092890330462</v>
       </c>
       <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
         <v>14.97805230063088</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>8.635057872998161</v>
       </c>
     </row>
@@ -767,9 +793,12 @@
         <v>52.6605769558021</v>
       </c>
       <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
         <v>12.99449929315639</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>7.538846380912256</v>
       </c>
     </row>
@@ -803,9 +832,12 @@
         <v>60.49761872529928</v>
       </c>
       <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
         <v>14.7557262466965</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>9.653272513944076</v>
       </c>
     </row>
@@ -839,9 +871,12 @@
         <v>51.14286116680218</v>
       </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>11.00080523939056</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5.944133610524949</v>
       </c>
     </row>
@@ -875,9 +910,12 @@
         <v>62.06266845111134</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
         <v>15.83177247250938</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>8.845897440463169</v>
       </c>
     </row>
@@ -911,9 +949,12 @@
         <v>35.78485428587717</v>
       </c>
       <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>9.968623919174213</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>7.684815419481289</v>
       </c>
     </row>
@@ -947,9 +988,12 @@
         <v>48.6645788426399</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>13.08756441151185</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>7.253735846383231</v>
       </c>
     </row>
@@ -983,9 +1027,12 @@
         <v>48.85713883319781</v>
       </c>
       <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
         <v>11.36394537722602</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>6.140351382921216</v>
       </c>
     </row>
@@ -1019,9 +1066,12 @@
         <v>54.87941190621066</v>
       </c>
       <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>10.66275460749764</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5.229647877613653</v>
       </c>
     </row>
@@ -1055,9 +1105,12 @@
         <v>44.06706713846724</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>11.76184650188641</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>6.490107433320505</v>
       </c>
     </row>
@@ -1091,9 +1144,12 @@
         <v>48.17613267524776</v>
       </c>
       <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
         <v>11.53805137129642</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>5.874278076816273</v>
       </c>
     </row>
@@ -1127,9 +1183,12 @@
         <v>42.9620139094452</v>
       </c>
       <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
         <v>10.28296146683869</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>5.330290160109424</v>
       </c>
     </row>
@@ -1163,9 +1222,12 @@
         <v>45.12058809378934</v>
       </c>
       <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
         <v>11.02584902142507</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>5.407730934109558</v>
       </c>
     </row>
@@ -1199,9 +1261,12 @@
         <v>47.3394230441979</v>
       </c>
       <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
         <v>12.34330310192279</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>7.161050519848892</v>
       </c>
     </row>
@@ -1235,9 +1300,12 @@
         <v>62.66967036126406</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>11.40899673881355</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>6.286932701716112</v>
       </c>
     </row>
@@ -1271,9 +1339,12 @@
         <v>41.24973157417233</v>
       </c>
       <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
         <v>8.752888886556207</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>6.278828736964861</v>
       </c>
     </row>
@@ -1307,9 +1378,12 @@
         <v>63.85488201724262</v>
       </c>
       <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
         <v>14.19728802957768</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>6.060617258606774</v>
       </c>
     </row>
@@ -1343,9 +1417,12 @@
         <v>50.11799643792745</v>
       </c>
       <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
         <v>12.77082498715634</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>6.245261627480646</v>
       </c>
     </row>
@@ -1379,9 +1456,12 @@
         <v>55.93293286153276</v>
       </c>
       <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
         <v>11.89110169735078</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>6.561429576892438</v>
       </c>
     </row>
@@ -1415,9 +1495,12 @@
         <v>51.33542115736011</v>
       </c>
       <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
         <v>13.56648288505818</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>7.519174700384396</v>
       </c>
     </row>
@@ -1451,9 +1534,12 @@
         <v>58.75026842582767</v>
       </c>
       <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
         <v>13.28773474179907</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>9.531871342970987</v>
       </c>
     </row>
@@ -1487,9 +1573,12 @@
         <v>48.50223213964446</v>
       </c>
       <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
         <v>14.09325514271885</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>7.896543789928914</v>
       </c>
     </row>
@@ -1523,9 +1612,12 @@
         <v>58.86456197222118</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>14.50352229966095</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>8.018406732097011</v>
       </c>
     </row>
@@ -1559,9 +1651,12 @@
         <v>36.99974882945583</v>
       </c>
       <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
         <v>11.37280634162305</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>8.108163149506771</v>
       </c>
     </row>
@@ -1595,9 +1690,12 @@
         <v>50.88705138879433</v>
       </c>
       <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
         <v>13.67022734197923</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>8.725205880130281</v>
       </c>
     </row>
@@ -1631,9 +1729,12 @@
         <v>37.33032963873593</v>
       </c>
       <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
         <v>9.333575573984106</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>5.143270950406251</v>
       </c>
     </row>
@@ -1667,9 +1768,12 @@
         <v>39.50238127470073</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>12.34392940835913</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>8.075462534313173</v>
       </c>
     </row>
@@ -1703,9 +1807,12 @@
         <v>42.01138211158054</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>11.7293249343776</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>7.093315787814931</v>
       </c>
     </row>
@@ -1739,9 +1846,12 @@
         <v>40.26737197496392</v>
       </c>
       <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
         <v>14.93236197480351</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>9.312750785751669</v>
       </c>
     </row>
@@ -1775,9 +1885,12 @@
         <v>55.67864707711699</v>
       </c>
       <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
         <v>12.92859091235769</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>8.800501192518773</v>
       </c>
     </row>
@@ -1811,9 +1924,12 @@
         <v>62.2174519295292</v>
       </c>
       <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
         <v>15.65633889991855</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>8.566728200372207</v>
       </c>
     </row>
@@ -1847,9 +1963,12 @@
         <v>51.16517878811739</v>
       </c>
       <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
         <v>15.6279253192387</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>9.400924835851594</v>
       </c>
     </row>
@@ -1883,9 +2002,12 @@
         <v>51.49776786035554</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>15.38752711544402</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>8.621732910909405</v>
       </c>
     </row>
@@ -1919,9 +2041,12 @@
         <v>59.73262802503607</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>16.02556081029452</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>9.994537654525699</v>
       </c>
     </row>
@@ -1955,9 +2080,12 @@
         <v>73.80890619784734</v>
       </c>
       <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
         <v>15.34841658216072</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>8.427167289713079</v>
       </c>
     </row>
@@ -1991,9 +2119,12 @@
         <v>55.66630804759273</v>
       </c>
       <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
         <v>15.10677729905367</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>7.958135100701319</v>
       </c>
     </row>
@@ -2027,9 +2158,12 @@
         <v>26.19109380215266</v>
       </c>
       <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
         <v>12.09978282001059</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>6.643479700175745</v>
       </c>
     </row>
@@ -2063,9 +2197,12 @@
         <v>37.7825480704708</v>
       </c>
       <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
         <v>12.76991212639724</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>6.987352983911927</v>
       </c>
     </row>
@@ -2099,9 +2236,12 @@
         <v>34.32584671217386</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>10.75604066280336</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>6.117838891517343</v>
       </c>
     </row>
@@ -2135,9 +2275,12 @@
         <v>53.58092087449238</v>
       </c>
       <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
         <v>16.65631825373999</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>8.790442424520242</v>
       </c>
     </row>
@@ -2171,9 +2314,12 @@
         <v>52.439552511363</v>
       </c>
       <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
         <v>13.1625899325068</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>9.782692174744231</v>
       </c>
     </row>
@@ -2207,9 +2353,12 @@
         <v>63.00025117054419</v>
       </c>
       <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
         <v>14.64970157327597</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>10.44440280434387</v>
       </c>
     </row>
@@ -2243,9 +2392,12 @@
         <v>31.13962009062841</v>
       </c>
       <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
         <v>11.66400381245175</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>8.317378286768088</v>
       </c>
     </row>
@@ -2279,9 +2431,12 @@
         <v>50.01555988166575</v>
       </c>
       <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
         <v>13.26508512037064</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>7.797573413608085</v>
       </c>
     </row>
@@ -2315,9 +2470,12 @@
         <v>67.01448595143741</v>
       </c>
       <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
         <v>13.00349723975911</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>6.386678848960413</v>
       </c>
     </row>
@@ -2351,9 +2509,12 @@
         <v>61.32185907878534</v>
       </c>
       <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
         <v>14.48100059392689</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>8.072162315953792</v>
       </c>
     </row>
@@ -2387,9 +2548,12 @@
         <v>49.05086054255205</v>
       </c>
       <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
         <v>11.5857116101273</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>6.89080673124546</v>
       </c>
     </row>
@@ -2423,9 +2587,12 @@
         <v>51.82386732475225</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>10.34691294580453</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>5.26784306329854</v>
       </c>
     </row>
@@ -2459,9 +2626,12 @@
         <v>62.58201753767361</v>
       </c>
       <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
         <v>13.42395802185586</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>8.660634816922013</v>
       </c>
     </row>
@@ -2495,9 +2665,12 @@
         <v>58.86768273732243</v>
       </c>
       <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
         <v>11.57445614589337</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>7.015733944257258</v>
       </c>
     </row>
@@ -2531,9 +2704,12 @@
         <v>37.75356511532853</v>
       </c>
       <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
         <v>12.10693260270072</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>6.330527971859333</v>
       </c>
     </row>
@@ -2567,9 +2743,12 @@
         <v>41.13231726267757</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>12.95528072698262</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>7.852706132194553</v>
       </c>
     </row>
@@ -2603,9 +2782,12 @@
         <v>48.92516248672168</v>
       </c>
       <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
         <v>11.93472786125121</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>6.274889737633881</v>
       </c>
     </row>
@@ -2639,9 +2821,12 @@
         <v>56.43077688254021</v>
       </c>
       <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
         <v>14.91059738906959</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>8.133859311478227</v>
       </c>
     </row>
@@ -2675,9 +2860,12 @@
         <v>31.11946952967334</v>
       </c>
       <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
         <v>8.193265929482438</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>4.370254443775783</v>
       </c>
     </row>
@@ -2711,9 +2899,12 @@
         <v>62.73277306470479</v>
       </c>
       <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
         <v>11.23901677827868</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>5.148823879774076</v>
       </c>
     </row>
@@ -2747,9 +2938,12 @@
         <v>58.2298291356287</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>12.2094435917297</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>7.333011385031428</v>
       </c>
     </row>
@@ -2783,9 +2977,12 @@
         <v>65.67415328782613</v>
       </c>
       <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
         <v>14.5632671656361</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>8.283319582604197</v>
       </c>
     </row>
@@ -2819,9 +3016,12 @@
         <v>48.8348212118826</v>
       </c>
       <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
         <v>14.73971346772253</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>8.866624045193422</v>
       </c>
     </row>
@@ -2855,9 +3055,12 @@
         <v>44.33369195240728</v>
       </c>
       <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
         <v>11.43241237572096</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>6.022507673997183</v>
       </c>
     </row>
@@ -2891,9 +3094,12 @@
         <v>38.15907109669538</v>
       </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>9.136678712375645</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>5.267423818851995</v>
       </c>
     </row>
@@ -2927,9 +3133,12 @@
         <v>57.98861788841945</v>
       </c>
       <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
         <v>12.1476022746583</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>7.346269242348571</v>
       </c>
     </row>
@@ -2963,9 +3172,12 @@
         <v>36.14511798275738</v>
       </c>
       <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
         <v>10.56395378849959</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>4.509599334487089</v>
       </c>
     </row>
@@ -2999,9 +3211,12 @@
         <v>37.93733154888865</v>
       </c>
       <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
         <v>9.765426268083866</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>5.456366896370811</v>
       </c>
     </row>
@@ -3035,9 +3250,12 @@
         <v>41.13543802777882</v>
       </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>12.79564751105779</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>7.07419232544667</v>
       </c>
     </row>
@@ -3071,9 +3289,12 @@
         <v>57.0379860905548</v>
       </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>10.5187361987572</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>5.45250667697575</v>
       </c>
     </row>
@@ -3107,9 +3328,12 @@
         <v>43.56922311745978</v>
       </c>
       <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
         <v>14.76813615769742</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>8.056145482643263</v>
       </c>
     </row>
@@ -3143,9 +3367,12 @@
         <v>35.3641570848811</v>
       </c>
       <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>10.42546657088065</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>5.796829810136821</v>
       </c>
     </row>
@@ -3179,9 +3406,12 @@
         <v>58.422844425752</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>14.7197894630831</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>8.472713111890366</v>
       </c>
     </row>
@@ -3215,9 +3445,12 @@
         <v>64.21514571412284</v>
       </c>
       <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
         <v>11.65574699847257</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>8.985419149692911</v>
       </c>
     </row>
@@ -3251,9 +3484,12 @@
         <v>68.8603799093716</v>
       </c>
       <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
         <v>12.99309048528637</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>9.265124601979881</v>
       </c>
     </row>
@@ -3287,9 +3523,12 @@
         <v>64.6358429151189</v>
       </c>
       <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
         <v>13.3558880643153</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>7.426220164411652</v>
       </c>
     </row>
@@ -3323,9 +3562,12 @@
         <v>68.88053047032666</v>
       </c>
       <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
         <v>15.59582907451767</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>8.318751265233724</v>
       </c>
     </row>
@@ -3359,9 +3601,12 @@
         <v>79.18280740041122</v>
       </c>
       <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>15.75164971461076</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>9.118140966497867</v>
       </c>
     </row>
@@ -3395,9 +3640,12 @@
         <v>68.53401947395147</v>
       </c>
       <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
         <v>13.56482558276776</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>10.24308810993958</v>
       </c>
     </row>
@@ -3431,9 +3679,12 @@
         <v>20.81719259958878</v>
       </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>7.38563072682059</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>4.275312320536348</v>
       </c>
     </row>
@@ -3467,9 +3718,12 @@
         <v>37.2672269352952</v>
       </c>
       <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
         <v>6.970118574783606</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>3.193154140677341</v>
       </c>
     </row>
@@ -3503,9 +3757,12 @@
         <v>41.577155574248</v>
       </c>
       <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
         <v>15.12630639052141</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>8.706704318758522</v>
       </c>
     </row>
@@ -3539,9 +3796,12 @@
         <v>45.55232799923895</v>
       </c>
       <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
         <v>14.48064513942142</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>11.5032540161011</v>
       </c>
     </row>
@@ -3575,9 +3835,12 @@
         <v>44.32135292288299</v>
       </c>
       <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
         <v>12.23086421768099</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>8.325558126396595</v>
       </c>
     </row>
@@ -3611,9 +3874,12 @@
         <v>49.98444011833425</v>
       </c>
       <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>12.66072794818707</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>7.442316031135272</v>
       </c>
     </row>
@@ -3647,9 +3913,12 @@
         <v>31.46598052604853</v>
       </c>
       <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
         <v>9.048581363013806</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>6.832776109488029</v>
       </c>
     </row>
@@ -3683,9 +3952,12 @@
         <v>48.82548035763568</v>
       </c>
       <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
         <v>14.80654382774276</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>8.2743681586088</v>
       </c>
     </row>
@@ -3719,9 +3991,12 @@
         <v>59.78811531657116</v>
       </c>
       <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>14.54775704437674</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>7.660385305255785</v>
       </c>
     </row>
@@ -3755,9 +4030,12 @@
         <v>51.17451964236432</v>
       </c>
       <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
         <v>13.07785998795906</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>7.308324584455655</v>
       </c>
     </row>
@@ -3791,9 +4069,12 @@
         <v>38.67814092121466</v>
       </c>
       <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>11.27066048534138</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>6.282618404410343</v>
       </c>
     </row>
@@ -3827,9 +4108,12 @@
         <v>58.13729068724376</v>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>11.01913506321465</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>5.521413127537305</v>
       </c>
     </row>
@@ -3863,9 +4147,12 @@
         <v>37.4179824623264</v>
       </c>
       <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
         <v>12.09576507020613</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>7.803734482317286</v>
       </c>
     </row>
@@ -3899,9 +4186,12 @@
         <v>54.44767200076105</v>
       </c>
       <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
         <v>12.69288162527885</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>10.08307572805549</v>
       </c>
     </row>
@@ -3935,9 +4225,12 @@
         <v>48.98751611957798</v>
       </c>
       <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>13.63846309374244</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>7.246744234458612</v>
       </c>
     </row>
@@ -3971,9 +4264,12 @@
         <v>49.11294861120567</v>
       </c>
       <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>14.3873426474557</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>9.18291433834008</v>
       </c>
     </row>
@@ -4007,9 +4303,12 @@
         <v>51.07483751327832</v>
       </c>
       <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
         <v>14.22534444621439</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>7.479221052846003</v>
       </c>
     </row>
@@ -4043,9 +4342,12 @@
         <v>32.98551404856258</v>
       </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>12.53019624217391</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>6.154216657079692</v>
       </c>
     </row>
@@ -4079,9 +4381,12 @@
         <v>41.86270931275624</v>
       </c>
       <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
         <v>11.63214365875397</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>5.828576410978954</v>
       </c>
     </row>
@@ -4115,9 +4420,12 @@
         <v>49.88200356207255</v>
       </c>
       <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>9.838653581709693</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>4.811354453742961</v>
       </c>
     </row>
@@ -4151,9 +4459,12 @@
         <v>40.21188468342885</v>
       </c>
       <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
         <v>11.80676733812748</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>6.217067465704336</v>
       </c>
     </row>
